--- a/Index_of_packages.xlsx
+++ b/Index_of_packages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\work\schmettow\GitHub\New_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246F8034-101D-4150-BB6E-BC4DE66E41EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9055B878-6E65-422A-B04D-5B96A04D413C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>main position</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>4.1.2, 4.1.5, 4.2, 4.2.5, 4.2.6</t>
+  </si>
+  <si>
+    <t>polynom</t>
+  </si>
+  <si>
+    <t>5.6</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,67 +617,75 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Index_of_packages.xlsx
+++ b/Index_of_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\work\schmettow\GitHub\New_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9055B878-6E65-422A-B04D-5B96A04D413C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757C8AC-B493-41A4-973F-E5FBD56FAB46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Index_of_packages.xlsx
+++ b/Index_of_packages.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\work\schmettow\GitHub\New_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757C8AC-B493-41A4-973F-E5FBD56FAB46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B207C6B-5548-4FF3-BC10-0C4F8DB8E9FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>main position</t>
   </si>
@@ -146,6 +145,12 @@
   </si>
   <si>
     <t>5.6</t>
+  </si>
+  <si>
+    <t>brms</t>
+  </si>
+  <si>
+    <t>brm</t>
   </si>
 </sst>
 </file>
@@ -475,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,177 +521,187 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>37</v>
       </c>
     </row>
